--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A850124A-7A6A-4A39-B9DD-3EA1F96441DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D0DE5-2D9A-4ADB-8E8C-2314A65EB09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" activeTab="4" xr2:uid="{98BB078B-02F0-6A40-B0B8-47246E5E4F5A}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="891" xr2:uid="{98BB078B-02F0-6A40-B0B8-47246E5E4F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="imported_cases" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -64,7 +64,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 https://app.powerbi.com/view?r=eyJrIjoiODBmMmE3NWQtZWNlNC00OWRkLTk1NjYtMjM2YTY1MjI2NzdjIiwidCI6ImMwZTA2MDFmLTBmYWMtNDQ5Yy05Yzg4LWExMDRjNGViOWYyOCJ9</t>
@@ -718,11 +718,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -812,19 +813,35 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -919,7 +936,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -981,6 +998,8 @@
     <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="cells" xfId="6" xr:uid="{3D05B3B2-2C6D-4B07-931E-60A2B0B04E53}"/>
@@ -1005,6 +1024,2807 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Age structure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> of the Victorian population</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1100" i="1" baseline="0"/>
+              <a:t>One year categories</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1100" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>age_structure!$A$2:$A$102</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>age_structure!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>51644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47264</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46881</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46060</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45089</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51644</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57082</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62268</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65748</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67616</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69524</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68853</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70349</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69066</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70593</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70290</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70329</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63651</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61078</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58825</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57758</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57474</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58945</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58764</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60562</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62188</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58516</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57151</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55721</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52759</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51203</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52390</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52233</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50728</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50400</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48635</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46043</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41591</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40048</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39347</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37557</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35044</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35468</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36916</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28539</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27857</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24515</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22513</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21180</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20299</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18359</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16639</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15860</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14577</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13563</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13090</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12411</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9448</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8392</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7237</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5790</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4815</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3856</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6573-448B-B397-B508058C8056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="-27"/>
+        <c:axId val="710703599"/>
+        <c:axId val="703233535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="710703599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703233535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703233535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710703599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Age distribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> of "household heads" </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1100" i="1" baseline="0"/>
+              <a:t>Used to initiate the model; one year categories</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1100" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>household_heads!$A$2:$A$102</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>household_heads!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>4775.2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0">
+                  <c:v>10328.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
+                  <c:v>17124.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0">
+                  <c:v>24043.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0">
+                  <c:v>24907.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0">
+                  <c:v>31488.5</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>39010.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0">
+                  <c:v>46023.6</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0">
+                  <c:v>54092.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0">
+                  <c:v>55619.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0">
+                  <c:v>68853</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69066</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70593</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70290</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70329</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63651</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61078</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58825</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57758</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57474</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58945</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58764</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60562</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62188</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58516</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57151</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55721</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52759</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51203</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52390</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52233</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50728</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50400</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48635</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46043</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41591</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40048</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39347</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37557</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35044</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35468</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36916</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28539</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27857</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24515</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22513</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21180</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20299</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18359</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16639</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15860</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14577</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13563</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13090</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12411</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9448</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8392</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7237</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5790</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4815</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3856</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD8E-4395-B8B3-141111203C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="-27"/>
+        <c:axId val="710703599"/>
+        <c:axId val="703233535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="710703599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703233535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703233535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710703599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Age distribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> of "household heads" </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1100" i="1" baseline="0"/>
+              <a:t>Used to initiate the model; one year categories</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1100" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>household_heads!$A$2:$A$102</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>household_heads!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>4775.2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0">
+                  <c:v>10328.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
+                  <c:v>17124.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0">
+                  <c:v>24043.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0">
+                  <c:v>24907.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0">
+                  <c:v>31488.5</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>39010.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0">
+                  <c:v>46023.6</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0">
+                  <c:v>54092.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0">
+                  <c:v>55619.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0">
+                  <c:v>68853</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69066</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70593</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70290</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70329</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63651</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61078</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58825</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57758</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57474</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58945</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58764</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60562</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62188</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58516</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57151</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55721</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52759</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51203</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52390</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52233</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50728</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50400</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48635</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46043</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41591</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40048</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39347</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37557</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35044</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35468</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36916</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28539</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27857</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24515</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22513</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21180</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20299</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18359</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16639</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15860</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14577</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13563</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13090</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12411</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9448</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8392</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7237</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5790</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4815</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3856</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-155A-4345-81FC-26FD9777600A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="-27"/>
+        <c:axId val="710703599"/>
+        <c:axId val="703233535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="710703599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703233535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703233535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710703599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1378,6 +4198,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1920,7 +4860,1638 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>364470</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>158730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984E3998-1A73-4B02-B955-262F5EF2716F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>383520</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>147300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EC3A0B-C449-4C34-83A0-61DB73939FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB17575-319F-4616-BCB4-5CD6B1D5C6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1961,7 +6532,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2009,6 +6580,72 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3735FDE0-CA24-430C-983B-2D96C114BD68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6979920" y="2179320"/>
+          <a:ext cx="5280660" cy="3375660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2313,8 +6950,8 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2373,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -2391,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -2409,7 +7046,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -2445,7 +7082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2463,7 +7100,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -2481,7 +7118,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>11</v>
@@ -2499,7 +7136,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -2517,7 +7154,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -2535,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -2553,7 +7190,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>21</v>
@@ -2571,7 +7208,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>27</v>
@@ -2589,7 +7226,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>36</v>
@@ -2607,7 +7244,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>49</v>
@@ -2625,7 +7262,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>57</v>
@@ -2643,7 +7280,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>71</v>
@@ -2664,7 +7301,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>94</v>
@@ -2682,7 +7319,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>121</v>
@@ -2703,7 +7340,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>150</v>
@@ -2751,7 +7388,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <v>229</v>
@@ -2775,7 +7412,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>296</v>
@@ -2799,7 +7436,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>355</v>
@@ -2829,7 +7466,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>411</v>
@@ -2847,7 +7484,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>466</v>
@@ -2865,7 +7502,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>520</v>
@@ -2892,7 +7529,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>574</v>
@@ -2922,7 +7559,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>685</v>
@@ -2946,7 +7583,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>769</v>
@@ -2973,7 +7610,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>821</v>
@@ -2991,7 +7628,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>917</v>
@@ -3021,7 +7658,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>968</v>
@@ -3057,7 +7694,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>1036</v>
@@ -3087,7 +7724,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>1085</v>
@@ -3123,7 +7760,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>1115</v>
@@ -3147,7 +7784,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>1135</v>
@@ -3174,7 +7811,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>1158</v>
@@ -3210,7 +7847,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>1191</v>
@@ -3249,7 +7886,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1212</v>
@@ -3288,7 +7925,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1228</v>
@@ -3321,7 +7958,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>1241</v>
@@ -3348,7 +7985,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1265</v>
@@ -3381,7 +8018,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1268</v>
@@ -3417,7 +8054,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1281</v>
@@ -3450,7 +8087,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>1291</v>
@@ -7850,8 +12487,8 @@
   </sheetPr>
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="G94" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8798,6 +13435,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8808,8 +13446,8 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9769,6 +14407,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9779,7 +14418,7 @@
   </sheetPr>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9968,64 +14607,65 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="13"/>
+    <col min="1" max="1" width="5.19921875" style="13" customWidth="1"/>
+    <col min="2" max="17" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="33" t="s">
         <v>74</v>
       </c>
       <c r="R1" s="13" t="s">
@@ -10033,55 +14673,55 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="34">
         <v>0.65986800000000001</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="34">
         <v>0.503965</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="34">
         <v>0.21477299999999999</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="34">
         <v>9.4509999999999997E-2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="34">
         <v>0.15807499999999999</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="34">
         <v>0.33119399999999999</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="34">
         <v>0.61729000000000001</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="34">
         <v>0.62299000000000004</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="34">
         <v>0.22986699999999999</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="34">
         <v>7.7709E-2</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="34">
         <v>7.2123999999999994E-2</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="34">
         <v>3.5873000000000002E-2</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="34">
         <v>2.9784999999999999E-2</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="34">
         <v>9.92E-3</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="34">
         <v>4.2420000000000001E-3</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="34">
         <v>6.1619999999999999E-3</v>
       </c>
       <c r="R2" s="7" t="s">
@@ -10089,805 +14729,825 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="34">
         <v>0.31477699999999997</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="34">
         <v>0.89546000000000003</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="34">
         <v>0.412466</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="34">
         <v>0.12892600000000001</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="34">
         <v>3.9333E-2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="34">
         <v>0.149588</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="34">
         <v>0.431338</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="34">
         <v>0.62494499999999997</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="34">
         <v>0.47687299999999999</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="34">
         <v>0.162493</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="34">
         <v>4.9998000000000001E-2</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="34">
         <v>2.9618999999999999E-2</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="34">
         <v>1.6726000000000001E-2</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="34">
         <v>9.5239999999999995E-3</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="34">
         <v>4.1780000000000003E-3</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="34">
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="34">
         <v>0.13282099999999999</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="34">
         <v>0.40507300000000002</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="34">
         <v>1.433889</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="34">
         <v>0.39880599999999999</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="34">
         <v>5.5355000000000001E-2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="34">
         <v>3.4249000000000002E-2</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="34">
         <v>0.119908</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="34">
         <v>0.375305</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="34">
         <v>0.56235800000000002</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="34">
         <v>0.27133200000000002</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="34">
         <v>7.5578999999999993E-2</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="34">
         <v>1.8716E-2</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="34">
         <v>1.4074E-2</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="34">
         <v>1.0442E-2</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="34">
         <v>7.698E-3</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="34">
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="34">
         <v>6.1564000000000001E-2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="34">
         <v>0.116366</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="34">
         <v>0.45097300000000001</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="34">
         <v>1.1951130000000001</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="34">
         <v>0.18948100000000001</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="34">
         <v>4.1827000000000003E-2</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="34">
         <v>2.5562999999999999E-2</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="34">
         <v>0.15873200000000001</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="34">
         <v>0.359678</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="34">
         <v>0.46463599999999999</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="34">
         <v>0.211951</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="34">
         <v>4.7126000000000001E-2</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="34">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="34">
         <v>1.1908E-2</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="34">
         <v>4.9189999999999998E-3</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="34">
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="34">
         <v>0.14102200000000001</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="34">
         <v>6.4642000000000005E-2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="34">
         <v>8.3546999999999996E-2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="34">
         <v>0.40224300000000002</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="34">
         <v>1.1921930000000001</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="34">
         <v>0.248001</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="34">
         <v>4.6676000000000002E-2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="34">
         <v>2.2216E-2</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="34">
         <v>0.139739</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="34">
         <v>0.43590299999999998</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="34">
         <v>0.28106300000000001</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="34">
         <v>0.103923</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="34">
         <v>2.0109999999999999E-2</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="34">
         <v>4.0249999999999999E-3</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="34">
         <v>5.359E-3</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="34">
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="34">
         <v>0.42515599999999998</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="34">
         <v>0.13725799999999999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="34">
         <v>4.3091999999999998E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="34">
         <v>8.3335999999999993E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="34">
         <v>0.27788800000000002</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="34">
         <v>1.089831</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="34">
         <v>0.22731799999999999</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="34">
         <v>4.1119000000000003E-2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="34">
         <v>2.086E-2</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="34">
         <v>7.6337000000000002E-2</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="34">
         <v>0.20813300000000001</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="34">
         <v>0.106445</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="34">
         <v>4.3403999999999998E-2</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="34">
         <v>1.0788000000000001E-2</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="34">
         <v>1.526E-3</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="34">
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="34">
         <v>0.63256400000000002</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="34">
         <v>0.52978800000000004</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="34">
         <v>0.221806</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="34">
         <v>4.1730000000000003E-2</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="34">
         <v>6.4195000000000002E-2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="34">
         <v>0.22583800000000001</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="34">
         <v>0.93633699999999997</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="34">
         <v>0.236536</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="34">
         <v>7.1504999999999999E-2</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="34">
         <v>2.2377000000000001E-2</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="34">
         <v>4.0784000000000001E-2</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="34">
         <v>6.2238000000000002E-2</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="34">
         <v>5.9047000000000002E-2</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="34">
         <v>1.0583E-2</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="34">
         <v>5.4229999999999999E-3</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="34">
         <v>3.594E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="34">
         <v>0.53381800000000001</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="34">
         <v>0.76395199999999996</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="34">
         <v>0.56459199999999998</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="34">
         <v>0.20846700000000001</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="34">
         <v>3.1192000000000001E-2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="34">
         <v>4.0858999999999999E-2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="34">
         <v>0.16445899999999999</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="34">
         <v>0.94722799999999996</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="34">
         <v>0.174175</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="34">
         <v>4.2037999999999999E-2</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="34">
         <v>2.5260000000000001E-2</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="34">
         <v>1.8571000000000001E-2</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="34">
         <v>3.2816999999999999E-2</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="34">
         <v>1.9281E-2</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="34">
         <v>9.4479999999999998E-3</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="34">
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="34">
         <v>0.24148500000000001</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="34">
         <v>0.53524700000000003</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="34">
         <v>0.726603</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="34">
         <v>0.44772899999999999</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="34">
         <v>0.109945</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="34">
         <v>3.4540000000000001E-2</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="34">
         <v>7.7090000000000006E-2</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="34">
         <v>0.18113699999999999</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="34">
         <v>0.77208200000000005</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="34">
         <v>0.16217000000000001</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="34">
         <v>3.7186999999999998E-2</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="34">
         <v>7.443E-3</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="34">
         <v>2.1396999999999999E-2</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="34">
         <v>2.512E-2</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="34">
         <v>9.8720000000000006E-3</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="34">
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="34">
         <v>0.122279</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="34">
         <v>0.276169</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="34">
         <v>0.46051500000000001</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="34">
         <v>0.61675800000000003</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="34">
         <v>0.32389400000000002</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="34">
         <v>7.7887999999999999E-2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="34">
         <v>3.0709E-2</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="34">
         <v>8.0238000000000004E-2</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="34">
         <v>0.164073</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="34">
         <v>0.67377399999999998</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="34">
         <v>0.140821</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="34">
         <v>2.7285E-2</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="34">
         <v>1.1768000000000001E-2</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="34">
         <v>9.0639999999999991E-3</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="34">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="34">
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="34">
         <v>0.202735</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="34">
         <v>0.16897499999999999</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="34">
         <v>0.30529200000000001</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="34">
         <v>0.41128100000000001</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="34">
         <v>0.39054499999999998</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="34">
         <v>0.23483599999999999</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="34">
         <v>9.1048000000000004E-2</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="34">
         <v>4.861E-2</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="34">
         <v>7.9533999999999994E-2</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="34">
         <v>0.187475</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="34">
         <v>0.66868700000000003</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="34">
         <v>0.13591600000000001</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="34">
         <v>2.6984999999999999E-2</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="34">
         <v>8.7309999999999992E-3</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="34">
         <v>9.3959999999999998E-3</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="34">
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="34">
         <v>0.32726300000000003</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="34">
         <v>0.32473099999999999</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="34">
         <v>0.21896099999999999</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="34">
         <v>0.30264000000000002</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="34">
         <v>0.28360600000000002</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="34">
         <v>0.32831300000000002</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="34">
         <v>0.25703799999999999</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="34">
         <v>8.4280999999999995E-2</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="34">
         <v>4.2615E-2</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="34">
         <v>0.12336</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="34">
         <v>0.21965000000000001</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="34">
         <v>0.70332499999999998</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="34">
         <v>0.14740900000000001</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="34">
         <v>4.3435000000000001E-2</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="34">
         <v>7.1599999999999997E-3</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="34">
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="34">
         <v>0.39001200000000003</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="34">
         <v>0.34861300000000001</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="34">
         <v>0.24646000000000001</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="34">
         <v>0.221558</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="34">
         <v>0.154866</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="34">
         <v>0.21662200000000001</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="34">
         <v>0.292574</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="34">
         <v>0.21071000000000001</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="34">
         <v>9.5468999999999998E-2</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="34">
         <v>5.0065999999999999E-2</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="34">
         <v>9.9140000000000006E-2</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="34">
         <v>0.20558000000000001</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="34">
         <v>0.67306100000000002</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="34">
         <v>0.117825</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="34">
         <v>2.2641000000000001E-2</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="34">
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="34">
         <v>0.27691300000000002</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="34">
         <v>0.40850700000000001</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="34">
         <v>0.36937399999999998</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="34">
         <v>0.194775</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="34">
         <v>0.13383900000000001</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="34">
         <v>0.15487699999999999</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="34">
         <v>0.26593499999999998</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="34">
         <v>0.315639</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="34">
         <v>0.26062400000000002</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="34">
         <v>8.1602999999999995E-2</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="34">
         <v>7.9352000000000006E-2</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="34">
         <v>0.11375300000000001</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="34">
         <v>0.165434</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="34">
         <v>0.67988899999999997</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="34">
         <v>0.102949</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="34">
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="34">
         <v>0.124528</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="34">
         <v>0.37307600000000002</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="34">
         <v>0.33174900000000002</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="34">
         <v>0.26471499999999998</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="34">
         <v>5.3835000000000001E-2</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="34">
         <v>0.113358</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="34">
         <v>0.102258</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="34">
         <v>0.24501899999999999</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="34">
         <v>0.23438200000000001</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="34">
         <v>0.18404599999999999</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="34">
         <v>0.10995099999999999</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="34">
         <v>5.3179999999999998E-2</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="34">
         <v>0.104953</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="34">
         <v>0.15714600000000001</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="34">
         <v>0.434751</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="34">
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="34">
         <v>0.223936</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="34">
         <v>0.29398800000000003</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="34">
         <v>0.46812700000000002</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="34">
         <v>0.36628500000000003</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="34">
         <v>9.4772999999999996E-2</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="34">
         <v>8.3843000000000001E-2</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="34">
         <v>0.104393</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="34">
         <v>0.23522100000000001</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="34">
         <v>0.28778300000000001</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="34">
         <v>0.26388600000000001</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="34">
         <v>0.29662300000000003</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="34">
         <v>0.126778</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="34">
         <v>4.9124000000000001E-2</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="34">
         <v>9.4159999999999994E-2</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="34">
         <v>0.10020999999999999</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="34">
         <v>0.304143</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:Q17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{3AB9E1DB-2611-4341-BD59-5B459C21E221}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
